--- a/view/tablas_taller_2.xlsx
+++ b/view/tablas_taller_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\de.sandoval10\Documents\GitHub\Taller-2\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dj.farfan10\Documents\GitHub\Taller-2\view\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90ED4AF4-DDB2-4EE7-963D-6E1CA8FD74CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E092611E-0B96-4B8D-B6BE-FBBE17CCD7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{1FB073AB-6636-4ADA-8E87-927BEEEF57F1}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="172">
   <si>
     <t xml:space="preserve">variable type: factor skym_cariable </t>
   </si>
@@ -547,10 +547,10 @@
     <t>0: 8652, 1: 1634</t>
   </si>
   <si>
-    <t>6: 7'15, 5: 1446, 6: 1262, 3: 389</t>
-  </si>
-  <si>
     <t>2: 9693, 1: 506, 12: 33, 13: 19</t>
+  </si>
+  <si>
+    <t>6: 715, 5: 1446, 6: 1262, 3: 389</t>
   </si>
 </sst>
 </file>
@@ -913,9 +913,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{254C6B47-8C6D-4CD8-8F17-5E8525288083}">
-  <dimension ref="A2:H44"/>
+  <dimension ref="A2:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D11"/>
     </sheetView>
   </sheetViews>
@@ -1483,146 +1483,6 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>82</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>3</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>2</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>2</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>2</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>6</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>18</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1632,13 +1492,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{614777CC-78D8-4457-80D9-27EB4CF644C1}">
   <dimension ref="A3:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2170,7 +2030,7 @@
         <v>6</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2184,7 +2044,7 @@
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2193,23 +2053,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="53a92cce-9c2b-4c59-93ff-9fbaa5f63fae" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100FD959D5753947E4BA1AB073436591D1A" ma:contentTypeVersion="9" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8265a33874f043d2f31580575aa00d60">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a25529e5-1219-4a73-91cc-663b42e8d1e8" xmlns:ns4="53a92cce-9c2b-4c59-93ff-9fbaa5f63fae" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b57b9d9ae5e02315260089a282214a3f" ns3:_="" ns4:_="">
     <xsd:import namespace="a25529e5-1219-4a73-91cc-663b42e8d1e8"/>
@@ -2406,32 +2249,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5796BFE-A7EF-4DED-B428-319C21A74186}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="a25529e5-1219-4a73-91cc-663b42e8d1e8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="53a92cce-9c2b-4c59-93ff-9fbaa5f63fae"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C2BBC44-3AE7-4603-826C-299CFC70AE21}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="53a92cce-9c2b-4c59-93ff-9fbaa5f63fae" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9507EB43-F254-4F01-886C-FE75AA5B6495}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2448,4 +2283,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C2BBC44-3AE7-4603-826C-299CFC70AE21}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5796BFE-A7EF-4DED-B428-319C21A74186}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="a25529e5-1219-4a73-91cc-663b42e8d1e8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="53a92cce-9c2b-4c59-93ff-9fbaa5f63fae"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>